--- a/Test 1.xlsx
+++ b/Test 1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\doug.jordan\Desktop\Coaxial Fixing\testing\Versions from G drive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E499493F-903F-4D74-98C1-9CD9A4F26E16}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2568AD59-2676-47DF-A64F-3B2D7AC81EFA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection lockRevision="1"/>
   <bookViews>
     <workbookView xWindow="1410" yWindow="3045" windowWidth="21600" windowHeight="11505" xr2:uid="{4DB53674-72F6-4CB5-98C3-3AA5BC9C7A43}"/>
@@ -39,7 +39,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
-    <t>This is column B</t>
+    <t>This is column A</t>
   </si>
 </sst>
 </file>
@@ -95,12 +95,17 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E8951264-9866-45D3-87A2-A77340DBF42D}" protected="1">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{64543D0E-64C6-47E0-B611-B30F869309CF}" diskRevisions="1" revisionId="1" version="2" protected="1">
   <header guid="{E8951264-9866-45D3-87A2-A77340DBF42D}" dateTime="2020-04-24T13:45:22" maxSheetId="2" userName="Doug Jordan" r:id="rId1">
     <sheetIdMap count="1">
       <sheetId val="1"/>
     </sheetIdMap>
   </header>
+  <header guid="{64543D0E-64C6-47E0-B611-B30F869309CF}" dateTime="2020-04-24T14:09:22" maxSheetId="2" userName="Doug Jordan" r:id="rId2" minRId="1">
+    <sheetIdMap count="1">
+      <sheetId val="1"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
@@ -108,10 +113,25 @@
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
 </file>
 
+<file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="1" sId="1">
+    <oc r="A1" t="inlineStr">
+      <is>
+        <t>This is column B</t>
+      </is>
+    </oc>
+    <nc r="A1" t="inlineStr">
+      <is>
+        <t>This is column A</t>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
 <file path=xl/revisions/userNames.xml><?xml version="1.0" encoding="utf-8"?>
-<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="1">
-  <userInfo guid="{E8951264-9866-45D3-87A2-A77340DBF42D}" name="Doug Jordan" id="-1515666638" dateTime="2020-04-24T13:45:22"/>
-</users>
+<users xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" count="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -414,7 +434,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
